--- a/TrainingResource_Hypothetical_DQAP_Results.xlsx
+++ b/TrainingResource_Hypothetical_DQAP_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://officenationalstatistics.sharepoint.com/sites/BPI/StrategicDirection/Government_Data_Quality_Hub/Products/Training/Data_Quality_Action_Plans/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://officenationalstatistics-my.sharepoint.com/personal/nazma_kurimbokus_ons_gov_uk/Documents/Training/DQAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{D2BED716-4178-4E99-8F38-744500874740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F34420F-806D-4CF9-B9F5-9D9E2B87B656}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B857B07F-B96B-433A-852A-F0D200D329A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -793,6 +793,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -802,7 +815,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -882,19 +895,70 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -964,9 +1028,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1007,11 +1068,33 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="35">
     <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1045,6 +1128,246 @@
       <font>
         <color theme="1" tint="0.34998626667073579"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1115,6 +1438,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D4E6496-FAD5-46DC-B855-79D9C62BB514}" name="Table3" displayName="Table3" ref="A2:J46" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+  <autoFilter ref="A2:J46" xr:uid="{1D4E6496-FAD5-46DC-B855-79D9C62BB514}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{06925028-F256-49EC-9597-BCF992D8EE09}" name="ID" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{2F9D4AAA-B1AB-4D9E-91E6-6741379B7C3C}" name="Purpose" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{D581A5DF-3E44-4890-ABE1-5A7EE8BE71C9}" name="Part of data" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{D2ADF9F0-D87F-4BF3-B014-C587471AB0BD}" name="Requirement" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{E566FFEA-B542-47CD-B746-38CCD0F9E768}" name="Relevant Aspect" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{C6E36B89-BC93-4C00-8D8F-5601051AAC34}" name="Measure" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{EE692D4E-7DEB-41E7-99C2-660F16E730A0}" name="Metric" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{46AA48BB-33E9-4CBE-9CD5-5C8E22A78665}" name="Method" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{FBC55BA5-9720-44C6-9734-905E64D9396B}" name="Target" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{2215B1B1-7008-4AD9-A3AE-AED0A28A7095}" name="Notes" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_causes" displayName="tbl_causes" ref="A3:E37" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data quality issue" dataDxfId="5"/>
@@ -1127,7 +1480,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tbl_actions" displayName="tbl_actions" ref="A3:F39" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Data Quality Issue"/>
@@ -1469,26 +1822,26 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="69.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="53.5546875" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="19.53515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="69.53515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="53.53515625" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="27.6">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +1849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" customHeight="1">
+    <row r="4" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1504,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -1512,7 +1865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.95">
+    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -1520,15 +1873,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="37">
         <v>44542</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -1536,19 +1889,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1">
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="7"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
@@ -1556,7 +1909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>44197</v>
       </c>
@@ -1564,7 +1917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>44229</v>
       </c>
@@ -1572,7 +1925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
@@ -1589,95 +1942,95 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="5" customWidth="1"/>
-    <col min="4" max="5" width="15.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="37.44140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="30.44140625" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="4.3046875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.3046875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.69140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.53515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.84375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.765625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="37.4609375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.69140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="30.4609375" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.84375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="27.6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15.95" thickBot="1">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="46.5">
-      <c r="A3" s="8">
+    <row r="3" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="45">
         <v>0.95</v>
       </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="62.1">
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1709,7 +2062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="62.1">
+    <row r="5" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
@@ -1741,7 +2094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="62.45" thickBot="1">
+    <row r="6" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="24" t="s">
         <v>51</v>
       </c>
@@ -1757,53 +2110,53 @@
       <c r="E6" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <v>0.92</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="62.1">
-      <c r="A7" s="8">
+    <row r="7" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="44">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="45">
         <v>0.8</v>
       </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="67.5" customHeight="1">
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1833,7 +2186,7 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="93">
+    <row r="9" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1865,7 +2218,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="93">
+    <row r="10" spans="1:10" ht="93" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1895,7 +2248,7 @@
       </c>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1907,7 +2260,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1919,7 +2272,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1931,7 +2284,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1943,7 +2296,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1955,7 +2308,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1967,7 +2320,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1979,7 +2332,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1991,7 +2344,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2003,7 +2356,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2015,7 +2368,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2027,7 +2380,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2039,7 +2392,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2051,7 +2404,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2063,7 +2416,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2075,7 +2428,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2087,7 +2440,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2099,7 +2452,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2111,7 +2464,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2123,7 +2476,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2135,7 +2488,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2147,7 +2500,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2159,7 +2512,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2171,7 +2524,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2183,7 +2536,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2195,7 +2548,7 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2207,7 +2560,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2219,7 +2572,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2231,7 +2584,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2243,7 +2596,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2255,7 +2608,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2267,7 +2620,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2279,7 +2632,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2291,7 +2644,7 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2303,7 +2656,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2315,72 +2668,71 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J36" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <conditionalFormatting sqref="A3 D3:J3">
-    <cfRule type="expression" dxfId="20" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="12" stopIfTrue="1">
       <formula>#REF! = "*No*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="19" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="10" stopIfTrue="1">
       <formula>#REF! = "*No*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="9" stopIfTrue="1">
       <formula>#REF! = "*No*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="17" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
       <formula>#REF! = "*No*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="7" stopIfTrue="1">
       <formula>#REF! = "*No*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
       <formula>#REF! = "*No*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
       <formula>#REF! = "*No*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="4" stopIfTrue="1">
       <formula>#REF! = "*No*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
       <formula>#REF! = "*No*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9">
-    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
       <formula>#REF! = "*No*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
       <formula>#REF! = "*No*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2391,6 +2743,12 @@
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2" listDataValidation="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2404,48 +2762,48 @@
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.4609375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="26.3046875" customWidth="1"/>
+    <col min="4" max="4" width="10.765625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69140625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="27.6">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="29"/>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="D2" s="30" t="s">
+      <c r="D1" s="28"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D2" s="29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.95" thickBot="1">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>44258</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="35" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30.95">
+    <row r="4" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -2455,7 +2813,7 @@
       <c r="C4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <v>0.94199999999999995</v>
       </c>
       <c r="E4" s="8"/>
@@ -2464,7 +2822,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="62.1">
+    <row r="5" spans="1:7" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -2474,7 +2832,7 @@
       <c r="C5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>0.98899999999999999</v>
       </c>
       <c r="E5" s="7"/>
@@ -2483,7 +2841,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="46.5">
+    <row r="6" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
@@ -2493,7 +2851,7 @@
       <c r="C6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>0.98199999999999998</v>
       </c>
       <c r="E6" s="7"/>
@@ -2502,7 +2860,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="46.5">
+    <row r="7" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
@@ -2512,7 +2870,7 @@
       <c r="C7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>0.60299999999999998</v>
       </c>
       <c r="E7" s="7"/>
@@ -2521,7 +2879,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30.95">
+    <row r="8" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -2531,7 +2889,7 @@
       <c r="C8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>0.40200000000000002</v>
       </c>
       <c r="E8" s="7"/>
@@ -2540,7 +2898,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="46.5">
+    <row r="9" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -2550,7 +2908,7 @@
       <c r="C9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>0.98099999999999998</v>
       </c>
       <c r="E9" s="7"/>
@@ -2559,7 +2917,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30.95">
+    <row r="10" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -2569,7 +2927,7 @@
       <c r="C10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>1</v>
       </c>
       <c r="E10" s="7"/>
@@ -2578,7 +2936,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="62.1">
+    <row r="11" spans="1:7" ht="62" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -2588,7 +2946,7 @@
       <c r="C11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <v>0.307</v>
       </c>
       <c r="E11" s="7"/>
@@ -2597,157 +2955,157 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="7:7">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="7:7">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="7:7">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="7:7">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="7:7">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="7:7">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="7:7">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="7:7">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="7:7">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="7:7">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="7:7">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="7:7">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="7:7">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G46" s="14"/>
     </row>
   </sheetData>
@@ -2785,29 +3143,29 @@
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="24.765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.84375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="38.4609375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.765625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.84375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="27.6">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="33" customHeight="1">
+    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>81</v>
       </c>
@@ -2824,7 +3182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="139.5">
+    <row r="4" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>86</v>
       </c>
@@ -2834,14 +3192,14 @@
       <c r="C4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="108.6">
+    <row r="5" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>91</v>
       </c>
@@ -2851,14 +3209,14 @@
       <c r="C5" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="93">
+    <row r="6" spans="1:5" ht="93" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>96</v>
       </c>
@@ -2868,10 +3226,10 @@
       <c r="C6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2906,25 +3264,25 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.765625" customWidth="1"/>
+    <col min="2" max="2" width="39.07421875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.4609375" customWidth="1"/>
+    <col min="6" max="6" width="43.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="31.5" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1"/>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -2944,7 +3302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="62.1">
+    <row r="4" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
@@ -2961,7 +3319,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="46.5">
+    <row r="5" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
@@ -2978,7 +3336,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.5">
+    <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -2995,7 +3353,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="62.1">
+    <row r="7" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -3012,7 +3370,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30.95">
+    <row r="8" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>115</v>
       </c>
@@ -3032,7 +3390,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.95">
+    <row r="9" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>96</v>
       </c>
@@ -3049,7 +3407,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="62.1">
+    <row r="10" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>96</v>
       </c>
@@ -3066,15 +3424,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" customHeight="1">
+    <row r="38" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18"/>
-      <c r="B38" s="37"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
     </row>
-    <row r="39" spans="1:4" ht="31.5" customHeight="1">
+    <row r="39" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18"/>
-      <c r="B39" s="37"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
     </row>
@@ -3105,8 +3463,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046556BDA31E2FB4B81222E472CC98A8F" ma:contentTypeVersion="34" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3563e1ab11e3729a1a294c52f9084662">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dab36e7-c487-4780-8e35-3b48fa83d7a8" xmlns:ns3="b8cddf56-ba6b-454f-81df-4d7870dfb390" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66844616d7dcf431c9494a99109b46f9" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046556BDA31E2FB4B81222E472CC98A8F" ma:contentTypeVersion="35" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3c04be6cd00ee6b301291f3427c08da3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dab36e7-c487-4780-8e35-3b48fa83d7a8" xmlns:ns3="b8cddf56-ba6b-454f-81df-4d7870dfb390" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6721e5ba1291a32fbe3d2f058a619ce2" ns2:_="" ns3:_="">
     <xsd:import namespace="6dab36e7-c487-4780-8e35-3b48fa83d7a8"/>
     <xsd:import namespace="b8cddf56-ba6b-454f-81df-4d7870dfb390"/>
     <xsd:element name="properties">
@@ -3132,6 +3490,7 @@
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:Move_x0020_to" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3276,6 +3635,23 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="Move_x0020_to" ma:index="25" nillable="true" ma:displayName="Move to" ma:format="RadioButtons" ma:internalName="Move_x0020_to">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="AFSD- AF communications"/>
+          <xsd:enumeration value="AFSD- AF strategy"/>
+          <xsd:enumeration value="AFSD- Divisional admin"/>
+          <xsd:enumeration value="AFSD- Evaluation"/>
+          <xsd:enumeration value="AFSD- GSG profession"/>
+          <xsd:enumeration value="AFSD-Presentation and Dissemination"/>
+          <xsd:enumeration value="AFSD- User engagement"/>
+          <xsd:enumeration value="Harmonisation"/>
+          <xsd:enumeration value="DQHub"/>
+          <xsd:enumeration value="Analysis Standards and Pipelines"/>
+          <xsd:enumeration value="To be deleted"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -3376,10 +3752,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <RetentionType xmlns="6dab36e7-c487-4780-8e35-3b48fa83d7a8">Notify</RetentionType>
+    <Retention xmlns="6dab36e7-c487-4780-8e35-3b48fa83d7a8">0</Retention>
+    <Move_x0020_to xmlns="b8cddf56-ba6b-454f-81df-4d7870dfb390" xsi:nil="true"/>
+    <EDRMSOwner xmlns="6dab36e7-c487-4780-8e35-3b48fa83d7a8" xsi:nil="true"/>
+    <Record_Type xmlns="6dab36e7-c487-4780-8e35-3b48fa83d7a8" xsi:nil="true"/>
+    <RetentionDate xmlns="6dab36e7-c487-4780-8e35-3b48fa83d7a8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8301BA73-4A79-4C8A-A051-92C967140595}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8301BA73-4A79-4C8A-A051-92C967140595}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8E4A42C-C30C-4A08-9FD9-A1683F7C8995}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABB3038C-DE72-40D5-8767-DF6E61AEDCF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6dab36e7-c487-4780-8e35-3b48fa83d7a8"/>
+    <ds:schemaRef ds:uri="b8cddf56-ba6b-454f-81df-4d7870dfb390"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2876D69-EE2E-40DE-8D67-9D3C89BE9FD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6dab36e7-c487-4780-8e35-3b48fa83d7a8"/>
+    <ds:schemaRef ds:uri="b8cddf56-ba6b-454f-81df-4d7870dfb390"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>